--- a/biology/Botanique/Davidsea_attenuata/Davidsea_attenuata.xlsx
+++ b/biology/Botanique/Davidsea_attenuata/Davidsea_attenuata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Davidsea attenuata  est une espèce de  plantes monocotylédones de la famille des Poaceae, sous-famille des Bambusoideae, originaire d'Asie tropicale.  C'est l'unique espèce du genre Davidsea (genre monotypique).
 Ce sont des bambous vivaces, cespiteux, à rhizomes courts (pachymorphes), aux tiges (chaumes) arquées pouvant atteindre 900 cm de long et aux inflorescences bractifères.
-Cette espèce est endémique du Sri Lanka où elle n'est connue que dans les montagnes du centre de l'île[3].
+Cette espèce est endémique du Sri Lanka où elle n'est connue que dans les montagnes du centre de l'île.
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique « Davidsea » est un hommage à Gerrit Davidse (1942–), botaniste et agrostologue américain d'origine néerlandaise[4].
-L'épithète spécifique « attenuata » est un adjectif latin signifiant « amoindri, rétréci », en référence aux épillets étroits[5]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique « Davidsea » est un hommage à Gerrit Davidse (1942–), botaniste et agrostologue américain d'origine néerlandaise.
+L'épithète spécifique « attenuata » est un adjectif latin signifiant « amoindri, rétréci », en référence aux épillets étroits
 </t>
         </is>
       </c>
